--- a/biology/Botanique/Senegalia_senegal/Senegalia_senegal.xlsx
+++ b/biology/Botanique/Senegalia_senegal/Senegalia_senegal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Senegalia senegal, l'acacia du Sénégal ou  gommier blanc, est une espèce d'arbres originaire d'Afrique appartenant à la famille des Fabacées.
 </t>
@@ -511,14 +523,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre de croissance rapide mais de taille modeste, de 3 à 6 m de haut[4]. L'écorce est grise et part, sur les troncs des arbres adultes, en fines plaques de couleur un peu plus sombre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre de croissance rapide mais de taille modeste, de 3 à 6 m de haut. L'écorce est grise et part, sur les troncs des arbres adultes, en fines plaques de couleur un peu plus sombre.
 Les rameaux sont velus lorsqu'ils sont jeunes.
-Des épines généralement disposées par trois garnissent la base des pétioles des feuilles, deux latérales plus petites et la troisième, d’environ 5 mm de long[4], plus grande et plus nettement dirigées vers le sol. 
-Le rachis des feuilles mesure de 2,5 à 5 cm de long et porte de 3 à 5 paires de folioles de 1,2 à 2,5 cm de long, elles-mêmes découpées en 8 à 15 paires de foliolules de 0,2 à 0,5 cm de long et d’environ 1 mm de large[4]. Chaque foliolule est de forme linéaire, au sommet obtus, et est subsessile.
-Les inflorescences apparaissent d'août à septembre pour le pic de floraison puis prolongation jusqu’en début de saison sèche (décembre). Ce sont des épis portés par un pédoncule long de 0,8 à 1,8 cm de long et chaque épi mesure de 5 à 10 cm de long[4]. Au sein de l’épi, les fleurs sont sessiles ; elles sont composées d’un calice non velu, long d’un ou deux millimètre(s), et d’une corolle de 4 mm de long[4]. Le nombre d’étamines est variable[4].
-Le fruit est une gousse aplatie de 5 à 7,5 cm de long et de 1,7 à 2,5 cm de large, presque droite, légèrement plus étroite entre chaque graine, et avec un bec recourbé court à l'extrémité. Chaque gousse contient 5 ou 6 graines lisses, de couleur gris-vert à brun sombre, discoïdales, de 6 à 9 mm de diamètre[4]. Chaque graine présente sur chacune de ses faces aplaties une dépression en forme de U.
+Des épines généralement disposées par trois garnissent la base des pétioles des feuilles, deux latérales plus petites et la troisième, d’environ 5 mm de long, plus grande et plus nettement dirigées vers le sol. 
+Le rachis des feuilles mesure de 2,5 à 5 cm de long et porte de 3 à 5 paires de folioles de 1,2 à 2,5 cm de long, elles-mêmes découpées en 8 à 15 paires de foliolules de 0,2 à 0,5 cm de long et d’environ 1 mm de large. Chaque foliolule est de forme linéaire, au sommet obtus, et est subsessile.
+Les inflorescences apparaissent d'août à septembre pour le pic de floraison puis prolongation jusqu’en début de saison sèche (décembre). Ce sont des épis portés par un pédoncule long de 0,8 à 1,8 cm de long et chaque épi mesure de 5 à 10 cm de long. Au sein de l’épi, les fleurs sont sessiles ; elles sont composées d’un calice non velu, long d’un ou deux millimètre(s), et d’une corolle de 4 mm de long. Le nombre d’étamines est variable.
+Le fruit est une gousse aplatie de 5 à 7,5 cm de long et de 1,7 à 2,5 cm de large, presque droite, légèrement plus étroite entre chaque graine, et avec un bec recourbé court à l'extrémité. Chaque gousse contient 5 ou 6 graines lisses, de couleur gris-vert à brun sombre, discoïdales, de 6 à 9 mm de diamètre. Chaque graine présente sur chacune de ses faces aplaties une dépression en forme de U.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'origine exacte de cette espèce est incertaine, mais sa présence est ancienne en Afrique tropicale et dans la péninsule arabique. 
 </t>
@@ -578,7 +594,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On tire de l'exsudat de l'acacia Sénégal la gomme arabique, utilisée à large échelle dans les industries pharmaceutique, alimentaire, cosmétique et textile. On le récolte en pratiquant des entailles dans le tronc et les branches de l'arbre ou en utilisant un outil en forme de biseau 
 Le bois très dense sert à fabriquer des manches d'outils et à produire un charbon de haute qualité. L'écorce est riche en tannins et est utilisée dans la pharmacopée populaire pour ses propriétés astringentes et expectorantes. Les rameaux épineux font de bonnes haies défensives.
@@ -615,7 +633,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce a besoin de précipitations annuelles comprises entre 100 et 800 mm, généralement de 300 à 400 mm, et tolère des périodes de sécheresse de 8 à 11 mois. L'arbre ne survit pas au gel. Il préfère les sols sableux ou légèrement limoneux dans la zone saharienne semi-aride, en particulier en Afrique de l’Ouest et dans la partie occidentale du Soudan. Lors de sa première année, la racine pivot peut pousser jusqu’à 4 m de long. Ensuite, un système de racines radiales assez dense se développe dans un rayon de 10 m autour de l'arbre qui est alors capable de récolter de l’eau de pluie sur une surface de 400 m³.
 L'arbre peut commencer à fructifier dès sa troisième année.
@@ -648,9 +668,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon le programme SAFORGEN[5]: 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon le programme SAFORGEN: 
 Acacia verek
 Acacia rupestris
 Acacia trispinosa
@@ -682,9 +704,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (23 février 2018)[6] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (23 février 2018) :
 variété Senegalia senegal var. kerensis (Schweinf.) Kyal. &amp; Boatwr.
 variété Senegalia senegal var. leiorachis (Brenan) Kyal. &amp; Boatwr.
 variété Senegalia senegal var. rostrata (Brenan) Kyal. &amp; Boatwr.
